--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456610.6553666897</v>
+        <v>454172.1822669429</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>228.97099082607</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>297.9731542666162</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>97.67927988550767</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.9187566128688</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.51754213718717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>30.28300967787795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>54.34809064563531</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>240.3592844139405</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340837</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>71.52923230912256</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>85.47654389282634</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>59.6020838770959</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>143.7703193541471</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.019807611460598</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>41.74133133758637</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>5.890337106876686</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>86.80636739624477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>7.541226902200529e-12</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>22.10695458833776</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116.4636264596503</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>219.8787494883747</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.4657402212419</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.33239976701775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>95.05806357631722</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678411</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>106.3612762946738</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>159.2132752806829</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>159.2661870898837</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.829779622645</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C2" t="n">
-        <v>1384.829779622645</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.564081015895</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>640.7758284176502</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>409.4919993004078</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.568951662578</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1771.429619686767</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8580214762837</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8580214762837</v>
+        <v>1989.118339645846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2006.793820398076</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723278</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2393.393660462198</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1181.224435268696</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>926.5399470628088</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>926.5399470628088</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>698.5503961647914</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.084818551271</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.81911994452</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>1006.81911994452</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F8" t="n">
-        <v>595.8332151549128</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7607649999092</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4893,28 +4893,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1840.954604762406</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1586.270116556519</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.852946519558</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>881.133427010089</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192584</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876572</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597503</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597503</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597503</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>265.0731740618399</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>97.87707477671989</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>97.87707477671989</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359455</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614378</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179076</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637302</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2404.800122633204</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2221.945288288108</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>2002.343823311049</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1713.268596655247</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1458.58410844936</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1169.166938412399</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>941.1773875143818</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>720.3848083708517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191922</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349506</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349506</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998425</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876679</v>
+        <v>869.9745311434702</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876679</v>
+        <v>869.9745311434702</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753321</v>
+        <v>719.8578917311345</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851859</v>
+        <v>571.9447981487414</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>425.054850650831</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>257.8587513657109</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>116.146920207909</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614378</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179076</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424045</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>378.6527890600114</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>378.6527890600114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>211.4566897748913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1822.407037300152</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>296.6049994797555</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832665</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855606</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199804</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993917</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956956</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058939</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,16 +6713,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>331.5467402424579</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487571</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2272.48174721178</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>784.581113480496</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>615.6449305525891</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7637,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>237.1698092394398</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.9485713868373</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>288.5586587705459</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>77.24602870710497</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631857611</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>24.63391537253531</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>280.2941372823674</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>59.6275952503244</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>59.15888173022778</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.615473018211</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>23.8310863865736</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>66.30572490086942</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.252253585077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>70.46607471595162</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405041</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>74.66500970697078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>20.61870490125438</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962746.6197922814</v>
+        <v>962746.619792281</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1040090.905974979</v>
+        <v>1040090.90597498</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631201</v>
+        <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.6348527529</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
@@ -26344,16 +26344,16 @@
         <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.063472367008217e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549222</v>
+        <v>48409.12727549199</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26445,10 +26445,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1130507.716701358</v>
+        <v>-1130694.110089897</v>
       </c>
       <c r="C6" t="n">
         <v>191096.8891359841</v>
       </c>
       <c r="D6" t="n">
-        <v>191096.8891359842</v>
+        <v>191096.889135984</v>
       </c>
       <c r="E6" t="n">
-        <v>-54917.3329953145</v>
+        <v>-54952.07092075089</v>
       </c>
       <c r="F6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="G6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866044</v>
       </c>
       <c r="H6" t="n">
-        <v>270495.1288120393</v>
+        <v>270460.3908866044</v>
       </c>
       <c r="I6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866044</v>
       </c>
       <c r="J6" t="n">
-        <v>52963.92641476251</v>
+        <v>52929.18848932686</v>
       </c>
       <c r="K6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="L6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="M6" t="n">
-        <v>185440.1008765285</v>
+        <v>185405.3629510926</v>
       </c>
       <c r="N6" t="n">
-        <v>270495.1288120399</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="O6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="P6" t="n">
-        <v>270495.1288120401</v>
+        <v>270460.3908866041</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>144.760560832822</v>
       </c>
       <c r="F2" t="n">
-        <v>177.9050549156414</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.50229141006247</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.0671112149076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>334.9898820931296</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>149.5698794939848</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>45.85255379167239</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076278</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>223.0785320781979</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.7352943127866</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>158.9825694749989</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.27461264024969e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.27461264024969e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940701</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>519.7862086120949</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197783</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962563</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>388.4444965287616</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753338</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010465</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010482</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
